--- a/ArchivosParaPruebas/Programa_Lengua_2020.xlsx
+++ b/ArchivosParaPruebas/Programa_Lengua_2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\DayClass\ArchivosParaPruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FE0C19C-8EB7-4565-AC5B-2062F83009B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F7E34F-E2EF-4D80-AC9D-F2C915689FB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{97C73DD4-4E65-4F9E-B30C-38A4F490E9A7}"/>
   </bookViews>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B81CD3B-8425-4473-BA97-639BB1FD1035}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>4</v>
       </c>
